--- a/medicine/Sexualité et sexologie/Turkish_Délices/Turkish_Délices.xlsx
+++ b/medicine/Sexualité et sexologie/Turkish_Délices/Turkish_Délices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turkish Délices (Turks fruit) est un film néerlandais réalisé par Paul Verhoeven et sorti en 1973.
-Le film est le plus grand succès de tous les temps au box-office néerlandais[1].
+Le film est le plus grand succès de tous les temps au box-office néerlandais.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début des années 1970, Eric, un sculpteur bohème, vit au milieu de ses fantasmes de sexualité débridée, de viols et de meurtres. Chaque jour, il séduit des femmes en usant de méthodes particulières et brutales. Après avoir couché avec elles, il les jette dehors de chez lui, après les avoir numérotées dans un cahier. En fait, il est profondément perturbé par la rupture qu'il a eue quelque temps auparavant avec Olga. Il avait fait sa connaissance en faisant de l'auto-stop. Ensemble, ils ont un grave accident. Eric s'en sort presque indemne mais Olga, gravement blessée, souffre d'une commotion cérébrale.
 Quand Olga sort de l'hôpital, Eric cherche à la revoir, mais sa mère refuse de les laisser se rencontrer, prétendant que leur fille ne le veut pas non plus. Un jour, il la retrouve par hasard sur un champ de foire. Ils se marient rapidement, malgré l'opposition de la mère d'Olga mais avec le soutien de son père. Après le décès du père, leur relation se dégrade. Un soir, après une soirée arrosée dans un restaurant chinois, Olga fugue avec un homme d'affaires américain. C'est ici que se termine le flash-back.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français : Turkish Délices
 Titre original : Turks fruit
-Titre américain : Turkish Delight[2]
-Titre britanniques : The Sensualist et Wild Intent en vidéo[2]
+Titre américain : Turkish Delight
+Titre britanniques : The Sensualist et Wild Intent en vidéo
 Réalisation : Paul Verhoeven
 Scénario : Gerard Soeteman, d'après le roman Turks fruit de Jan Wolkers
 Musique : Rogier Van Oterloo
@@ -569,7 +585,7 @@
 Format : Couleurs - 1,85:1 - 35 mm
 Genre : comédie dramatique, romance, érotique
 Durée : 112 minutes
-Dates de sortie[2] :
+Dates de sortie :
 Pays-Bas : 22 février 1973
 Belgique : 1er juin 1973 (sortie limitée à Gand)
 France : 8 novembre 1973</t>
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Monique van de Ven : Olga Stapels
 Rutger Hauer : Eric Vonk
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,11 +655,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le scénario est inspiré du roman Turks fruit de Jan Wolkers, très populaire aux Pays-Bas[3]. Auparavant, Paul Verhoeven avait sans succès tenté d'adapter d'autres œuvres de l'auteur[4].
-Ce film marque la première collaboration au cinéma entre le réalisateur Paul Verhoeven et l'acteur Rutger Hauer, après la série télévisée Floris (1969). Ils travailleront à nouveau ensemble sur Katie Tippel (1975), Le Choix du destin (1977), Spetters (1980) et La Chair et le Sang (1985)[4].
-Le tournage a lieu aux Pays-Bas : Amsterdam, Alkmaar, Bussum, Zaandam ainsi qu'à l'université Érasme de Rotterdam[5]. Après avoir vu French Connection (1971) de William Friedkin, Paul Verhoeven et son directeur de la photographie Jan de Bont optent pour un éclairage à la lumière naturelle et très réaliste. Les deux hommes se disputeront à ce sujet car Paul Verhoeven souhaite revenir à un éclairage plus traditionnel et renvoie Jan de Bont. Mais après le visionnage des premiers rushes, le réalisateur se rend compte qu'il s'est trompé[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scénario est inspiré du roman Turks fruit de Jan Wolkers, très populaire aux Pays-Bas. Auparavant, Paul Verhoeven avait sans succès tenté d'adapter d'autres œuvres de l'auteur.
+Ce film marque la première collaboration au cinéma entre le réalisateur Paul Verhoeven et l'acteur Rutger Hauer, après la série télévisée Floris (1969). Ils travailleront à nouveau ensemble sur Katie Tippel (1975), Le Choix du destin (1977), Spetters (1980) et La Chair et le Sang (1985).
+Le tournage a lieu aux Pays-Bas : Amsterdam, Alkmaar, Bussum, Zaandam ainsi qu'à l'université Érasme de Rotterdam. Après avoir vu French Connection (1971) de William Friedkin, Paul Verhoeven et son directeur de la photographie Jan de Bont optent pour un éclairage à la lumière naturelle et très réaliste. Les deux hommes se disputeront à ce sujet car Paul Verhoeven souhaite revenir à un éclairage plus traditionnel et renvoie Jan de Bont. Mais après le visionnage des premiers rushes, le réalisateur se rend compte qu'il s'est trompé.
 </t>
         </is>
       </c>
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,9 +690,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est inclus dans l'ouvrage 1001 films à voir avant de mourir[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est inclus dans l'ouvrage 1001 films à voir avant de mourir.
 </t>
         </is>
       </c>
@@ -683,7 +705,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,10 +723,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est nommé à l'Oscar du meilleur film en langue étrangère en 1974[6], mais c'est François Truffaut qui l'obtient avec La Nuit américaine.
-En 1999, le film reçoit le Veau d'or du meilleur film néerlandais du siècle lors du festival du cinéma néerlandais d'Utrecht[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est nommé à l'Oscar du meilleur film en langue étrangère en 1974, mais c'est François Truffaut qui l'obtient avec La Nuit américaine.
+En 1999, le film reçoit le Veau d'or du meilleur film néerlandais du siècle lors du festival du cinéma néerlandais d'Utrecht.
 </t>
         </is>
       </c>
@@ -715,7 +739,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Turkish_D%C3%A9lices</t>
+          <t>Turkish_Délices</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,7 +757,9 @@
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre se rapporte aux loukoums, seul aliment qu'Olga accepte lors de son séjour à l'hôpital après l'opération pour une tumeur au cerveau.
 </t>
